--- a/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-26/Sample-26.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-26/Sample-26.xlsx
@@ -175,18 +175,18 @@
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="5t3nejrc" xfId="1"/>
-    <cellStyle name="5t3nejrc_Alternate" xfId="2"/>
-    <cellStyle name="tyhkxwqv" xfId="3"/>
-    <cellStyle name="tyhkxwqv_Alternate" xfId="4"/>
-    <cellStyle name="mh3f3ayl" xfId="5"/>
-    <cellStyle name="mh3f3ayl_Alternate" xfId="6"/>
-    <cellStyle name="jtree1ao" xfId="7"/>
-    <cellStyle name="jtree1ao_Alternate" xfId="8"/>
-    <cellStyle name="zzcbjaov" xfId="9"/>
-    <cellStyle name="zzcbjaov_Alternate" xfId="10"/>
-    <cellStyle name="ua5jhrus" xfId="11"/>
-    <cellStyle name="ua5jhrus_Alternate" xfId="12"/>
+    <cellStyle name="klr0tm5x" xfId="1"/>
+    <cellStyle name="klr0tm5x_Alternate" xfId="2"/>
+    <cellStyle name="jovfrtkp" xfId="3"/>
+    <cellStyle name="jovfrtkp_Alternate" xfId="4"/>
+    <cellStyle name="uxvcbgjs" xfId="5"/>
+    <cellStyle name="uxvcbgjs_Alternate" xfId="6"/>
+    <cellStyle name="f0q4fik0" xfId="7"/>
+    <cellStyle name="f0q4fik0_Alternate" xfId="8"/>
+    <cellStyle name="txfbnga4" xfId="9"/>
+    <cellStyle name="txfbnga4_Alternate" xfId="10"/>
+    <cellStyle name="bzzftqch" xfId="11"/>
+    <cellStyle name="bzzftqch_Alternate" xfId="12"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-26/Sample-26.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-26/Sample-26.xlsx
@@ -175,18 +175,18 @@
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="klr0tm5x" xfId="1"/>
-    <cellStyle name="klr0tm5x_Alternate" xfId="2"/>
-    <cellStyle name="jovfrtkp" xfId="3"/>
-    <cellStyle name="jovfrtkp_Alternate" xfId="4"/>
-    <cellStyle name="uxvcbgjs" xfId="5"/>
-    <cellStyle name="uxvcbgjs_Alternate" xfId="6"/>
-    <cellStyle name="f0q4fik0" xfId="7"/>
-    <cellStyle name="f0q4fik0_Alternate" xfId="8"/>
-    <cellStyle name="txfbnga4" xfId="9"/>
-    <cellStyle name="txfbnga4_Alternate" xfId="10"/>
-    <cellStyle name="bzzftqch" xfId="11"/>
-    <cellStyle name="bzzftqch_Alternate" xfId="12"/>
+    <cellStyle name="bk0lduw5" xfId="1"/>
+    <cellStyle name="bk0lduw5_Alternate" xfId="2"/>
+    <cellStyle name="gy25jmmx" xfId="3"/>
+    <cellStyle name="gy25jmmx_Alternate" xfId="4"/>
+    <cellStyle name="qxa34prw" xfId="5"/>
+    <cellStyle name="qxa34prw_Alternate" xfId="6"/>
+    <cellStyle name="fuydxu4i" xfId="7"/>
+    <cellStyle name="fuydxu4i_Alternate" xfId="8"/>
+    <cellStyle name="bf4xnqau" xfId="9"/>
+    <cellStyle name="bf4xnqau_Alternate" xfId="10"/>
+    <cellStyle name="1uii4ls5" xfId="11"/>
+    <cellStyle name="1uii4ls5_Alternate" xfId="12"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
